--- a/va_facility_data_2025-02-20/Albany VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Albany%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Albany VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Albany%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R361cf7f1b47546b58db4f332afbdd80c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R528c1f1d33f34a109426160b27e2dce9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rddb927dd5930443497d2ba6d922bcfbf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6eb89de62bfb49008b765d4e9d987f60"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0fb27203f3b54084a1e2aa5a113e529f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R892109d526a44d93aee73c423f86182f"/>
   </x:sheets>
 </x:workbook>
 </file>
